--- a/CustomLocalization/Localization/RogueTech/RU/RISCtech and RISCtech HeavyMetal/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RISCtech and RISCtech HeavyMetal/LocalizationDef.xlsx
@@ -435,8 +435,8 @@
   </si>
   <si>
     <t xml:space="preserve">A heavily upgraded version of the SLDF Crusader. .
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Accurate Weapon - Missiles&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;
+ &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Accurate Weapon - Missiles&lt;/color&gt;&lt;/b&gt;
+ &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;
 ---
 A heavily upgraded version of the SLDF Crusader. .
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Accurate Weapon - Missiles&lt;/color&gt;&lt;/b&gt;
@@ -2002,8 +2002,8 @@
   </si>
   <si>
     <t xml:space="preserve">The Crusader was initially designed as a close combat BattleMech for the Star League Defense Force, but soon proved itself to be a very adaptable, multi-role design.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Accurate Weapon - Missiles&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;
+ &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Accurate Weapon - Missiles&lt;/color&gt;&lt;/b&gt;
+ &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;
 ---
 The Crusader was initially designed as a close combat BattleMech for the Star League Defense Force, but soon proved itself to be a very adaptable, multi-role design.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Accurate Weapon - Missiles&lt;/color&gt;&lt;/b&gt;
@@ -4565,18 +4565,18 @@
   </si>
   <si>
     <t xml:space="preserve">Slower than the Medium Tank, but possessing heavier armor and fire power, the Heavy Tank is a fearsome combatant. Carrying an array of ranged weapons, the Heavy Tank is designed to support allied units from range.
- &lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Spall Liner
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values       A        S  &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt;       286     35
-&lt;b&gt;Left&lt;/b&gt;         225     35
-&lt;b&gt;Right&lt;/b&gt;       225     35
-&lt;b&gt;Rear&lt;/b&gt;        160     35
-&lt;b&gt;Turret&lt;/b&gt;      275     35
-&lt;b&gt;Total&lt;/b&gt;      1171    175
+  &lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
+  &lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
+  &lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
+ &lt;b&gt;Armor:&lt;/b&gt; Spall Liner
+ &lt;b&gt;Structure:&lt;/b&gt; Structure
+ &lt;b&gt;Values A S &lt;/b&gt;
+ &lt;b&gt;Front&lt;/b&gt; 286 35
+ &lt;b&gt;Left&lt;/b&gt; 225 35
+ &lt;b&gt;Right&lt;/b&gt; 225 35
+ &lt;b&gt;Rear&lt;/b&gt; 160 35
+ &lt;b&gt;Turret&lt;/b&gt; 275 35
+ &lt;b&gt;Total&lt;/b&gt; 1171 175
 ---
 The Winston Combat Vehicle was a Republic of the Sphere frontline combat vehicle that began production in 3085. The Mk.X has seen upgrades and refits across the board by RISC engineers from its weapon systems to electronics. These upgrades coupled with the included Anti-Spall armor makes the Mk.X an incredibly tough nut to crack.
  &lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
@@ -6336,7 +6336,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
+    <col min="2" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/CustomLocalization/Localization/RogueTech/RU/RISCtech and RISCtech HeavyMetal/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RISCtech and RISCtech HeavyMetal/LocalizationDef.xlsx
@@ -435,8 +435,8 @@
   </si>
   <si>
     <t xml:space="preserve">A heavily upgraded version of the SLDF Crusader. .
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Accurate Weapon - Missiles&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Accurate Weapon - Missiles&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;
 ---
 A heavily upgraded version of the SLDF Crusader. .
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Accurate Weapon - Missiles&lt;/color&gt;&lt;/b&gt;
@@ -2002,8 +2002,8 @@
   </si>
   <si>
     <t xml:space="preserve">The Crusader was initially designed as a close combat BattleMech for the Star League Defense Force, but soon proved itself to be a very adaptable, multi-role design.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Accurate Weapon - Missiles&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Accurate Weapon - Missiles&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;
 ---
 The Crusader was initially designed as a close combat BattleMech for the Star League Defense Force, but soon proved itself to be a very adaptable, multi-role design.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Accurate Weapon - Missiles&lt;/color&gt;&lt;/b&gt;
@@ -4565,18 +4565,18 @@
   </si>
   <si>
     <t xml:space="preserve">Slower than the Medium Tank, but possessing heavier armor and fire power, the Heavy Tank is a fearsome combatant. Carrying an array of ranged weapons, the Heavy Tank is designed to support allied units from range.
-  &lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;Armor:&lt;/b&gt; Spall Liner
- &lt;b&gt;Structure:&lt;/b&gt; Structure
- &lt;b&gt;Values A S &lt;/b&gt;
- &lt;b&gt;Front&lt;/b&gt; 286 35
- &lt;b&gt;Left&lt;/b&gt; 225 35
- &lt;b&gt;Right&lt;/b&gt; 225 35
- &lt;b&gt;Rear&lt;/b&gt; 160 35
- &lt;b&gt;Turret&lt;/b&gt; 275 35
- &lt;b&gt;Total&lt;/b&gt; 1171 175
+ &lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
+ &lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
+ &lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Armor:&lt;/b&gt; Spall Liner
+&lt;b&gt;Structure:&lt;/b&gt; Structure
+&lt;b&gt;Values       A        S  &lt;/b&gt;
+&lt;b&gt;Front&lt;/b&gt;       286     35
+&lt;b&gt;Left&lt;/b&gt;         225     35
+&lt;b&gt;Right&lt;/b&gt;       225     35
+&lt;b&gt;Rear&lt;/b&gt;        160     35
+&lt;b&gt;Turret&lt;/b&gt;      275     35
+&lt;b&gt;Total&lt;/b&gt;      1171    175
 ---
 The Winston Combat Vehicle was a Republic of the Sphere frontline combat vehicle that began production in 3085. The Mk.X has seen upgrades and refits across the board by RISC engineers from its weapon systems to electronics. These upgrades coupled with the included Anti-Spall armor makes the Mk.X an incredibly tough nut to crack.
  &lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
@@ -6336,8 +6336,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
-    <col min="2" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/CustomLocalization/Localization/RogueTech/RU/RISCtech and RISCtech HeavyMetal/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RISCtech and RISCtech HeavyMetal/LocalizationDef.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="1195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="1196">
   <si>
     <t>Ammo_AmmunitionBox_MicroMissile.Description.Details</t>
   </si>
@@ -3719,6 +3719,21 @@
 &lt;b&gt;Turret&lt;/b&gt;      275     35
 &lt;b&gt;Total&lt;/b&gt;      1171    175
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Winston Combat Vehicle was a Republic of the Sphere frontline combat vehicle that began production in 3085. The Mk.X has seen upgrades and refits across the board by RISC engineers from its weapon systems to electronics. These upgrades coupled with the included Anti-Spall armor makes the Mk.X an incredibly tough nut to crack.
+&lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Armor:&lt;/b&gt; Противоосколочный подбой
+&lt;b&gt;Structure:&lt;/b&gt; Structure
+&lt;b&gt;Values A S &lt;/b&gt;
+&lt;b&gt;Front&lt;/b&gt; 286 35
+&lt;b&gt;Left&lt;/b&gt; 225 35
+&lt;b&gt;Right&lt;/b&gt; 225 35
+&lt;b&gt;Rear&lt;/b&gt; 160 35
+&lt;b&gt;Turret&lt;/b&gt; 275 35
+&lt;b&gt;Total&lt;/b&gt; 1171 175</t>
   </si>
   <si>
     <t>vehiclechassisdef_WINSTON_RX.YangsThoughts</t>
@@ -5442,8 +5457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E666"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A630" workbookViewId="0">
-      <selection activeCell="B639" sqref="B639"/>
+    <sheetView tabSelected="1" topLeftCell="A665" workbookViewId="0">
+      <selection activeCell="C666" sqref="C1:C666"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12276,8 +12291,8 @@
       <c r="B402" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="C402" s="3" t="s">
-        <v>789</v>
+      <c r="C402" s="4" t="s">
+        <v>790</v>
       </c>
       <c r="D402" s="2" t="s">
         <v>2</v>
@@ -12288,13 +12303,13 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="C403" s="3" t="s">
-        <v>791</v>
+        <v>792</v>
+      </c>
+      <c r="C403" s="4" t="s">
+        <v>792</v>
       </c>
       <c r="D403" s="2" t="s">
         <v>2</v>
@@ -12305,13 +12320,13 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D404" s="2" t="s">
         <v>2</v>
@@ -12322,7 +12337,7 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>591</v>
@@ -12339,13 +12354,13 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D406" s="2" t="s">
         <v>2</v>
@@ -12356,7 +12371,7 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>591</v>
@@ -12373,13 +12388,13 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D408" s="2" t="s">
         <v>2</v>
@@ -12390,7 +12405,7 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>591</v>
@@ -12407,13 +12422,13 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D410" s="2" t="s">
         <v>2</v>
@@ -12424,7 +12439,7 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>591</v>
@@ -12441,13 +12456,13 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D412" s="2" t="s">
         <v>2</v>
@@ -12458,7 +12473,7 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>591</v>
@@ -12475,13 +12490,13 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D414" s="2" t="s">
         <v>2</v>
@@ -12492,7 +12507,7 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>591</v>
@@ -12509,13 +12524,13 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D416" s="2" t="s">
         <v>2</v>
@@ -12526,7 +12541,7 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>591</v>
@@ -12543,13 +12558,13 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D418" s="2" t="s">
         <v>2</v>
@@ -12560,7 +12575,7 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B419" s="3" t="s">
         <v>591</v>
@@ -12577,13 +12592,13 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D420" s="2" t="s">
         <v>2</v>
@@ -12594,7 +12609,7 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>591</v>
@@ -12611,13 +12626,13 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D422" s="2" t="s">
         <v>2</v>
@@ -12628,7 +12643,7 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>591</v>
@@ -12645,13 +12660,13 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D424" s="2" t="s">
         <v>2</v>
@@ -12662,7 +12677,7 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>591</v>
@@ -12679,13 +12694,13 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D426" s="2" t="s">
         <v>2</v>
@@ -12696,7 +12711,7 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>591</v>
@@ -12713,13 +12728,13 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D428" s="2" t="s">
         <v>2</v>
@@ -12730,7 +12745,7 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>591</v>
@@ -12747,13 +12762,13 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D430" s="2" t="s">
         <v>2</v>
@@ -12764,7 +12779,7 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>591</v>
@@ -12781,13 +12796,13 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D432" s="2" t="s">
         <v>2</v>
@@ -12798,7 +12813,7 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>591</v>
@@ -12815,13 +12830,13 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D434" s="2" t="s">
         <v>2</v>
@@ -12832,7 +12847,7 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>591</v>
@@ -12849,7 +12864,7 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>578</v>
@@ -12866,7 +12881,7 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B437" s="3" t="s">
         <v>583</v>
@@ -12883,7 +12898,7 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>588</v>
@@ -12900,7 +12915,7 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>588</v>
@@ -12917,7 +12932,7 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>588</v>
@@ -12934,7 +12949,7 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>588</v>
@@ -12951,7 +12966,7 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>588</v>
@@ -12968,7 +12983,7 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B443" s="3" t="s">
         <v>588</v>
@@ -12985,7 +13000,7 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B444" s="3" t="s">
         <v>604</v>
@@ -13002,7 +13017,7 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B445" s="3" t="s">
         <v>608</v>
@@ -13019,7 +13034,7 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B446" s="3" t="s">
         <v>612</v>
@@ -13036,7 +13051,7 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B447" s="3" t="s">
         <v>612</v>
@@ -13053,7 +13068,7 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>618</v>
@@ -13070,7 +13085,7 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>622</v>
@@ -13087,7 +13102,7 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B450" s="3" t="s">
         <v>626</v>
@@ -13104,7 +13119,7 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>630</v>
@@ -13121,7 +13136,7 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>634</v>
@@ -13138,7 +13153,7 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>638</v>
@@ -13155,7 +13170,7 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B454" s="3" t="s">
         <v>642</v>
@@ -13172,7 +13187,7 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>646</v>
@@ -13189,7 +13204,7 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>646</v>
@@ -13206,7 +13221,7 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>652</v>
@@ -13223,7 +13238,7 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>656</v>
@@ -13240,7 +13255,7 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>656</v>
@@ -13257,7 +13272,7 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>656</v>
@@ -13274,7 +13289,7 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>656</v>
@@ -13291,7 +13306,7 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>656</v>
@@ -13308,7 +13323,7 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>656</v>
@@ -13325,7 +13340,7 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B464" s="3" t="s">
         <v>656</v>
@@ -13342,7 +13357,7 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>672</v>
@@ -13359,7 +13374,7 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>676</v>
@@ -13376,7 +13391,7 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>680</v>
@@ -13393,7 +13408,7 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>684</v>
@@ -13410,7 +13425,7 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B469" s="3" t="s">
         <v>688</v>
@@ -13427,7 +13442,7 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B470" s="3" t="s">
         <v>692</v>
@@ -13444,7 +13459,7 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B471" s="3" t="s">
         <v>696</v>
@@ -13461,7 +13476,7 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B472" s="3" t="s">
         <v>700</v>
@@ -13478,7 +13493,7 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B473" s="3" t="s">
         <v>704</v>
@@ -13495,7 +13510,7 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B474" s="3" t="s">
         <v>709</v>
@@ -13512,7 +13527,7 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>713</v>
@@ -13529,7 +13544,7 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B476" s="3" t="s">
         <v>717</v>
@@ -13546,7 +13561,7 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B477" s="3" t="s">
         <v>721</v>
@@ -13563,7 +13578,7 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>725</v>
@@ -13580,7 +13595,7 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B479" s="3" t="s">
         <v>729</v>
@@ -13597,7 +13612,7 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>733</v>
@@ -13614,7 +13629,7 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>737</v>
@@ -13631,7 +13646,7 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>741</v>
@@ -13648,7 +13663,7 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B483" s="3" t="s">
         <v>745</v>
@@ -13665,7 +13680,7 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>749</v>
@@ -13682,7 +13697,7 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B485" s="3" t="s">
         <v>753</v>
@@ -13699,7 +13714,7 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>757</v>
@@ -13716,7 +13731,7 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B487" s="3" t="s">
         <v>761</v>
@@ -13733,7 +13748,7 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B488" s="3" t="s">
         <v>765</v>
@@ -13750,7 +13765,7 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B489" s="3" t="s">
         <v>765</v>
@@ -13767,7 +13782,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B490" s="3" t="s">
         <v>771</v>
@@ -13784,7 +13799,7 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>775</v>
@@ -13801,7 +13816,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B492" s="3" t="s">
         <v>779</v>
@@ -13818,7 +13833,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B493" s="3" t="s">
         <v>779</v>
@@ -13835,7 +13850,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B494" s="3" t="s">
         <v>785</v>
@@ -13852,13 +13867,13 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B495" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="C495" s="3" t="s">
-        <v>789</v>
+      <c r="C495" s="4" t="s">
+        <v>790</v>
       </c>
       <c r="D495" s="2" t="s">
         <v>2</v>
@@ -13869,13 +13884,13 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D496" s="2" t="s">
         <v>2</v>
@@ -13886,13 +13901,13 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D497" s="2" t="s">
         <v>2</v>
@@ -13903,13 +13918,13 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D498" s="2" t="s">
         <v>2</v>
@@ -13920,13 +13935,13 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D499" s="2" t="s">
         <v>2</v>
@@ -13937,13 +13952,13 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D500" s="2" t="s">
         <v>2</v>
@@ -13954,13 +13969,13 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D501" s="2" t="s">
         <v>2</v>
@@ -13971,13 +13986,13 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D502" s="2" t="s">
         <v>2</v>
@@ -13988,13 +14003,13 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C503" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D503" s="2" t="s">
         <v>2</v>
@@ -14005,13 +14020,13 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D504" s="2" t="s">
         <v>2</v>
@@ -14022,13 +14037,13 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C505" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D505" s="2" t="s">
         <v>2</v>
@@ -14039,13 +14054,13 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D506" s="2" t="s">
         <v>2</v>
@@ -14056,13 +14071,13 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D507" s="2" t="s">
         <v>2</v>
@@ -14073,13 +14088,13 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D508" s="2" t="s">
         <v>2</v>
@@ -14090,13 +14105,13 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C509" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D509" s="2" t="s">
         <v>2</v>
@@ -14107,13 +14122,13 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D510" s="2" t="s">
         <v>2</v>
@@ -14124,13 +14139,13 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C511" s="4" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D511" s="2" t="s">
         <v>2</v>
@@ -14141,13 +14156,13 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D512" s="2" t="s">
         <v>2</v>
@@ -14158,13 +14173,13 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C513" s="4" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D513" s="2" t="s">
         <v>2</v>
@@ -14175,13 +14190,13 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C514" s="4" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D514" s="2" t="s">
         <v>2</v>
@@ -14192,13 +14207,13 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C515" s="4" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D515" s="2" t="s">
         <v>2</v>
@@ -14209,13 +14224,13 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C516" s="4" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D516" s="2" t="s">
         <v>2</v>
@@ -14226,13 +14241,13 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D517" s="2" t="s">
         <v>2</v>
@@ -14243,13 +14258,13 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C518" s="4" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D518" s="2" t="s">
         <v>2</v>
@@ -14260,13 +14275,13 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C519" s="4" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D519" s="2" t="s">
         <v>2</v>
@@ -14277,13 +14292,13 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C520" s="4" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D520" s="2" t="s">
         <v>2</v>
@@ -14294,13 +14309,13 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C521" s="4" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D521" s="2" t="s">
         <v>2</v>
@@ -14311,13 +14326,13 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C522" s="4" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D522" s="2" t="s">
         <v>2</v>
@@ -14328,13 +14343,13 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C523" s="4" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D523" s="2" t="s">
         <v>2</v>
@@ -14345,13 +14360,13 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C524" s="4" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D524" s="2" t="s">
         <v>2</v>
@@ -14362,13 +14377,13 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="B525" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="B525" s="3" t="s">
-        <v>935</v>
-      </c>
       <c r="C525" s="4" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D525" s="2" t="s">
         <v>2</v>
@@ -14379,13 +14394,13 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C526" s="4" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D526" s="2" t="s">
         <v>2</v>
@@ -14396,13 +14411,13 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C527" s="4" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D527" s="2" t="s">
         <v>2</v>
@@ -14413,13 +14428,13 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C528" s="4" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D528" s="2" t="s">
         <v>2</v>
@@ -14430,13 +14445,13 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C529" s="4" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D529" s="2" t="s">
         <v>2</v>
@@ -14447,13 +14462,13 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D530" s="2" t="s">
         <v>2</v>
@@ -14464,13 +14479,13 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C531" s="4" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D531" s="2" t="s">
         <v>2</v>
@@ -14481,13 +14496,13 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C532" s="4" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D532" s="2" t="s">
         <v>2</v>
@@ -14498,13 +14513,13 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C533" s="4" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D533" s="2" t="s">
         <v>2</v>
@@ -14515,13 +14530,13 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C534" s="4" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D534" s="2" t="s">
         <v>2</v>
@@ -14532,13 +14547,13 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D535" s="2" t="s">
         <v>2</v>
@@ -14549,13 +14564,13 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D536" s="2" t="s">
         <v>2</v>
@@ -14566,13 +14581,13 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D537" s="2" t="s">
         <v>2</v>
@@ -14583,13 +14598,13 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D538" s="2" t="s">
         <v>2</v>
@@ -14600,13 +14615,13 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D539" s="2" t="s">
         <v>2</v>
@@ -14617,13 +14632,13 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C540" s="4" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D540" s="2" t="s">
         <v>2</v>
@@ -14634,13 +14649,13 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C541" s="4" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D541" s="2" t="s">
         <v>2</v>
@@ -14651,13 +14666,13 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="D542" s="2" t="s">
         <v>2</v>
@@ -14668,13 +14683,13 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C543" s="4" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="D543" s="2" t="s">
         <v>2</v>
@@ -14685,13 +14700,13 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D544" s="2" t="s">
         <v>2</v>
@@ -14702,13 +14717,13 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C545" s="4" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D545" s="2" t="s">
         <v>2</v>
@@ -14719,13 +14734,13 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="D546" s="2" t="s">
         <v>2</v>
@@ -14736,13 +14751,13 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C547" s="4" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D547" s="2" t="s">
         <v>2</v>
@@ -14753,13 +14768,13 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C548" s="4" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D548" s="2" t="s">
         <v>2</v>
@@ -14770,13 +14785,13 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C549" s="4" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D549" s="2" t="s">
         <v>2</v>
@@ -14787,13 +14802,13 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C550" s="4" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D550" s="2" t="s">
         <v>2</v>
@@ -14804,13 +14819,13 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="B551" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="B551" s="3" t="s">
-        <v>984</v>
-      </c>
       <c r="C551" s="4" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D551" s="2" t="s">
         <v>2</v>
@@ -14821,13 +14836,13 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D552" s="2" t="s">
         <v>2</v>
@@ -14838,13 +14853,13 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D553" s="2" t="s">
         <v>2</v>
@@ -14855,13 +14870,13 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="B554" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="B554" s="3" t="s">
-        <v>990</v>
-      </c>
       <c r="C554" s="4" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D554" s="2" t="s">
         <v>2</v>
@@ -14872,13 +14887,13 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D555" s="2" t="s">
         <v>2</v>
@@ -14889,13 +14904,13 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C556" s="4" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D556" s="2" t="s">
         <v>2</v>
@@ -14906,13 +14921,13 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="B557" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="B557" s="3" t="s">
-        <v>994</v>
-      </c>
       <c r="C557" s="4" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D557" s="2" t="s">
         <v>2</v>
@@ -14923,13 +14938,13 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C558" s="4" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D558" s="2" t="s">
         <v>2</v>
@@ -14940,13 +14955,13 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D559" s="2" t="s">
         <v>2</v>
@@ -14957,13 +14972,13 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B560" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="B560" s="3" t="s">
-        <v>998</v>
-      </c>
       <c r="C560" s="4" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D560" s="2" t="s">
         <v>2</v>
@@ -14974,13 +14989,13 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C561" s="4" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D561" s="2" t="s">
         <v>2</v>
@@ -14991,13 +15006,13 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C562" s="4" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D562" s="2" t="s">
         <v>2</v>
@@ -15008,13 +15023,13 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B563" s="3" t="s">
         <v>1004</v>
       </c>
-      <c r="B563" s="3" t="s">
-        <v>1003</v>
-      </c>
       <c r="C563" s="4" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D563" s="2" t="s">
         <v>2</v>
@@ -15025,13 +15040,13 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C564" s="4" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D564" s="2" t="s">
         <v>2</v>
@@ -15042,13 +15057,13 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C565" s="4" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D565" s="2" t="s">
         <v>2</v>
@@ -15059,13 +15074,13 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C566" s="4" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D566" s="2" t="s">
         <v>2</v>
@@ -15076,13 +15091,13 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C567" s="4" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D567" s="2" t="s">
         <v>2</v>
@@ -15093,13 +15108,13 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C568" s="4" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D568" s="2" t="s">
         <v>2</v>
@@ -15110,13 +15125,13 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C569" s="4" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D569" s="2" t="s">
         <v>2</v>
@@ -15127,13 +15142,13 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C570" s="4" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D570" s="2" t="s">
         <v>2</v>
@@ -15144,13 +15159,13 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C571" s="4" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D571" s="2" t="s">
         <v>2</v>
@@ -15161,13 +15176,13 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C572" s="4" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D572" s="2" t="s">
         <v>2</v>
@@ -15178,13 +15193,13 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C573" s="4" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D573" s="2" t="s">
         <v>2</v>
@@ -15195,13 +15210,13 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C574" s="4" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D574" s="2" t="s">
         <v>2</v>
@@ -15212,13 +15227,13 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C575" s="4" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D575" s="2" t="s">
         <v>2</v>
@@ -15229,13 +15244,13 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C576" s="4" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D576" s="2" t="s">
         <v>2</v>
@@ -15246,13 +15261,13 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C577" s="4" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D577" s="2" t="s">
         <v>2</v>
@@ -15263,13 +15278,13 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C578" s="4" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D578" s="2" t="s">
         <v>2</v>
@@ -15280,13 +15295,13 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D579" s="2" t="s">
         <v>2</v>
@@ -15297,13 +15312,13 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C580" s="4" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D580" s="2" t="s">
         <v>2</v>
@@ -15314,13 +15329,13 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C581" s="4" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D581" s="2" t="s">
         <v>2</v>
@@ -15331,13 +15346,13 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C582" s="4" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D582" s="2" t="s">
         <v>2</v>
@@ -15348,13 +15363,13 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C583" s="4" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D583" s="2" t="s">
         <v>2</v>
@@ -15365,13 +15380,13 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C584" s="4" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D584" s="2" t="s">
         <v>2</v>
@@ -15382,13 +15397,13 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C585" s="4" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D585" s="2" t="s">
         <v>2</v>
@@ -15399,13 +15414,13 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C586" s="4" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D586" s="2" t="s">
         <v>2</v>
@@ -15416,13 +15431,13 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C587" s="4" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D587" s="2" t="s">
         <v>2</v>
@@ -15433,13 +15448,13 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C588" s="4" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D588" s="2" t="s">
         <v>2</v>
@@ -15450,13 +15465,13 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C589" s="4" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D589" s="2" t="s">
         <v>2</v>
@@ -15467,13 +15482,13 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C590" s="4" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D590" s="2" t="s">
         <v>2</v>
@@ -15484,13 +15499,13 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C591" s="4" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="D591" s="2" t="s">
         <v>2</v>
@@ -15501,13 +15516,13 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C592" s="4" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D592" s="2" t="s">
         <v>2</v>
@@ -15518,13 +15533,13 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C593" s="4" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D593" s="2" t="s">
         <v>2</v>
@@ -15535,13 +15550,13 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C594" s="4" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="D594" s="2" t="s">
         <v>2</v>
@@ -15552,13 +15567,13 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C595" s="4" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D595" s="2" t="s">
         <v>2</v>
@@ -15569,13 +15584,13 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C596" s="4" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D596" s="2" t="s">
         <v>2</v>
@@ -15586,13 +15601,13 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C597" s="4" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D597" s="2" t="s">
         <v>2</v>
@@ -15603,13 +15618,13 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C598" s="4" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D598" s="2" t="s">
         <v>2</v>
@@ -15620,13 +15635,13 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C599" s="4" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D599" s="2" t="s">
         <v>2</v>
@@ -15637,13 +15652,13 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C600" s="4" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="D600" s="2" t="s">
         <v>2</v>
@@ -15654,13 +15669,13 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C601" s="4" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="D601" s="2" t="s">
         <v>2</v>
@@ -15671,13 +15686,13 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C602" s="4" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D602" s="2" t="s">
         <v>2</v>
@@ -15688,13 +15703,13 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C603" s="4" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="D603" s="2" t="s">
         <v>2</v>
@@ -15705,13 +15720,13 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C604" s="4" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="D604" s="2" t="s">
         <v>2</v>
@@ -15722,13 +15737,13 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C605" s="4" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="D605" s="2" t="s">
         <v>2</v>
@@ -15739,13 +15754,13 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C606" s="4" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="D606" s="2" t="s">
         <v>2</v>
@@ -15756,13 +15771,13 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C607" s="4" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="D607" s="2" t="s">
         <v>2</v>
@@ -15773,13 +15788,13 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C608" s="4" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="D608" s="2" t="s">
         <v>2</v>
@@ -15790,13 +15805,13 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C609" s="4" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="D609" s="2" t="s">
         <v>2</v>
@@ -15807,13 +15822,13 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D610" s="2" t="s">
         <v>2</v>
@@ -15824,13 +15839,13 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C611" s="4" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D611" s="2" t="s">
         <v>2</v>
@@ -15841,13 +15856,13 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B612" s="3" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C612" s="4" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D612" s="2" t="s">
         <v>2</v>
@@ -15858,13 +15873,13 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C613" s="4" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="D613" s="2" t="s">
         <v>2</v>
@@ -15875,13 +15890,13 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B614" s="3" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C614" s="4" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D614" s="2" t="s">
         <v>2</v>
@@ -15892,13 +15907,13 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C615" s="4" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="D615" s="2" t="s">
         <v>2</v>
@@ -15909,13 +15924,13 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C616" s="4" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="D616" s="2" t="s">
         <v>2</v>
@@ -15926,13 +15941,13 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C617" s="4" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="D617" s="2" t="s">
         <v>2</v>
@@ -15943,13 +15958,13 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C618" s="4" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="D618" s="2" t="s">
         <v>2</v>
@@ -15960,13 +15975,13 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C619" s="4" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D619" s="2" t="s">
         <v>2</v>
@@ -15977,13 +15992,13 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C620" s="4" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="D620" s="2" t="s">
         <v>2</v>
@@ -15994,13 +16009,13 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C621" s="4" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="D621" s="2" t="s">
         <v>2</v>
@@ -16011,13 +16026,13 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B622" s="3" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C622" s="4" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D622" s="2" t="s">
         <v>2</v>
@@ -16028,13 +16043,13 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C623" s="4" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D623" s="2" t="s">
         <v>2</v>
@@ -16045,13 +16060,13 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B624" s="3" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C624" s="4" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D624" s="2" t="s">
         <v>2</v>
@@ -16062,13 +16077,13 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C625" s="4" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D625" s="2" t="s">
         <v>2</v>
@@ -16079,13 +16094,13 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C626" s="4" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D626" s="2" t="s">
         <v>2</v>
@@ -16096,13 +16111,13 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="C627" s="4" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="D627" s="2" t="s">
         <v>2</v>
@@ -16113,13 +16128,13 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C628" s="4" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D628" s="2" t="s">
         <v>2</v>
@@ -16130,13 +16145,13 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="C629" s="4" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D629" s="2" t="s">
         <v>2</v>
@@ -16147,13 +16162,13 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C630" s="4" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D630" s="2" t="s">
         <v>2</v>
@@ -16164,13 +16179,13 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C631" s="4" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D631" s="2" t="s">
         <v>2</v>
@@ -16181,13 +16196,13 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C632" s="4" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="D632" s="2" t="s">
         <v>2</v>
@@ -16198,13 +16213,13 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C633" s="4" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="D633" s="2" t="s">
         <v>2</v>
@@ -16215,13 +16230,13 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B634" s="3" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C634" s="4" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D634" s="2" t="s">
         <v>2</v>
@@ -16232,13 +16247,13 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B635" s="3" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="C635" s="4" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="D635" s="2" t="s">
         <v>2</v>
@@ -16249,13 +16264,13 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B636" s="3" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C636" s="4" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D636" s="2" t="s">
         <v>2</v>
@@ -16266,13 +16281,13 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B637" s="3" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C637" s="4" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D637" s="2" t="s">
         <v>2</v>
@@ -16283,13 +16298,13 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B638" s="3" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="C638" s="4" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="D638" s="2" t="s">
         <v>2</v>
@@ -16300,13 +16315,13 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B639" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="B639" s="3" t="s">
-        <v>1147</v>
-      </c>
       <c r="C639" s="4" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="D639" s="2" t="s">
         <v>2</v>
@@ -16317,13 +16332,13 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B640" s="3" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C640" s="4" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D640" s="2" t="s">
         <v>2</v>
@@ -16334,13 +16349,13 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B641" s="3" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="C641" s="4" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="D641" s="2" t="s">
         <v>2</v>
@@ -16351,13 +16366,13 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B642" s="3" t="s">
         <v>1152</v>
       </c>
-      <c r="B642" s="3" t="s">
-        <v>1151</v>
-      </c>
       <c r="C642" s="4" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="D642" s="2" t="s">
         <v>2</v>
@@ -16368,13 +16383,13 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B643" s="3" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C643" s="4" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D643" s="2" t="s">
         <v>2</v>
@@ -16385,13 +16400,13 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B644" s="3" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C644" s="4" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D644" s="2" t="s">
         <v>2</v>
@@ -16402,13 +16417,13 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B645" s="3" t="s">
         <v>1156</v>
       </c>
-      <c r="B645" s="3" t="s">
-        <v>1155</v>
-      </c>
       <c r="C645" s="4" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D645" s="2" t="s">
         <v>2</v>
@@ -16419,13 +16434,13 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C646" s="4" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D646" s="2" t="s">
         <v>2</v>
@@ -16436,13 +16451,13 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B647" s="3" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C647" s="4" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D647" s="2" t="s">
         <v>2</v>
@@ -16453,13 +16468,13 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B648" s="3" t="s">
         <v>1160</v>
       </c>
-      <c r="B648" s="3" t="s">
-        <v>1159</v>
-      </c>
       <c r="C648" s="4" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D648" s="2" t="s">
         <v>2</v>
@@ -16470,13 +16485,13 @@
     </row>
     <row r="649">
       <c r="A649" s="2" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B649" s="3" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C649" s="4" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="E649" s="2">
         <v>649</v>
@@ -16484,7 +16499,7 @@
     </row>
     <row r="650">
       <c r="A650" s="2" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B650" s="3" t="s">
         <v>4</v>
@@ -16498,13 +16513,13 @@
     </row>
     <row r="651">
       <c r="A651" s="2" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B651" s="3" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C651" s="4" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="E651" s="2">
         <v>651</v>
@@ -16512,13 +16527,13 @@
     </row>
     <row r="652">
       <c r="A652" s="2" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B652" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="C652" s="4" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="E652" s="2">
         <v>652</v>
@@ -16526,13 +16541,13 @@
     </row>
     <row r="653">
       <c r="A653" s="2" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B653" s="3" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="C653" s="4" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="E653" s="2">
         <v>653</v>
@@ -16540,13 +16555,13 @@
     </row>
     <row r="654">
       <c r="A654" s="2" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C654" s="4" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="E654" s="2">
         <v>654</v>
@@ -16554,13 +16569,13 @@
     </row>
     <row r="655">
       <c r="A655" s="2" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B655" s="3" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="C655" s="4" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="E655" s="2">
         <v>655</v>
@@ -16568,13 +16583,13 @@
     </row>
     <row r="656">
       <c r="A656" s="2" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B656" s="3" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="C656" s="4" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="E656" s="2">
         <v>656</v>
@@ -16582,13 +16597,13 @@
     </row>
     <row r="657">
       <c r="A657" s="2" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B657" s="3" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="C657" s="4" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="E657" s="2">
         <v>657</v>
@@ -16596,13 +16611,13 @@
     </row>
     <row r="658">
       <c r="A658" s="2" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B658" s="3" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="C658" s="4" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="E658" s="2">
         <v>658</v>
@@ -16610,13 +16625,13 @@
     </row>
     <row r="659">
       <c r="A659" s="2" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B659" s="3" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C659" s="4" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="E659" s="2">
         <v>659</v>
@@ -16624,13 +16639,13 @@
     </row>
     <row r="660">
       <c r="A660" s="2" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B660" s="3" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C660" s="4" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="E660" s="2">
         <v>660</v>
@@ -16638,13 +16653,13 @@
     </row>
     <row r="661">
       <c r="A661" s="2" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B661" s="3" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C661" s="4" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="E661" s="2">
         <v>661</v>
@@ -16652,13 +16667,13 @@
     </row>
     <row r="662">
       <c r="A662" s="2" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="C662" s="4" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="E662" s="2">
         <v>662</v>
@@ -16666,13 +16681,13 @@
     </row>
     <row r="663">
       <c r="A663" s="2" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B663" s="3" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C663" s="4" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="E663" s="2">
         <v>663</v>
@@ -16680,13 +16695,13 @@
     </row>
     <row r="664">
       <c r="A664" s="2" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C664" s="4" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="E664" s="2">
         <v>664</v>
@@ -16694,13 +16709,13 @@
     </row>
     <row r="665">
       <c r="A665" s="2" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B665" s="3" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="C665" s="4" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="E665" s="2">
         <v>665</v>
@@ -16708,13 +16723,13 @@
     </row>
     <row r="666">
       <c r="A666" s="2" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B666" s="3" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C666" s="4" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="E666" s="2">
         <v>666</v>

--- a/CustomLocalization/Localization/RogueTech/RU/RISCtech and RISCtech HeavyMetal/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RISCtech and RISCtech HeavyMetal/LocalizationDef.xlsx
@@ -5457,8 +5457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E666"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A665" workbookViewId="0">
-      <selection activeCell="C666" sqref="C1:C666"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="C656" sqref="C656"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
